--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1554.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1554.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070914079948006</v>
+        <v>1.458797812461853</v>
       </c>
       <c r="B1">
-        <v>1.445521145576799</v>
+        <v>1.995802879333496</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.921448230743408</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.661562919616699</v>
       </c>
       <c r="E1">
-        <v>1.247873507670855</v>
+        <v>0.8170109391212463</v>
       </c>
     </row>
   </sheetData>
